--- a/SellyExcel/6.9 테스트 통과/크래쉬 통계 시나리오.xlsx
+++ b/SellyExcel/6.9 테스트 통과/크래쉬 통계 시나리오.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/SellyExcel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/id_sucheol/Desktop/Project/IMQA-TestSelly/SellyExcel/6.9 테스트 통과/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1431BF2A-2A3F-CA4E-A781-1B65547C0D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8BF81EA-A018-AB4C-9C9B-7CEB31BCA01F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13420" yWindow="11080" windowWidth="27500" windowHeight="16440" xr2:uid="{56EAD808-F40F-C541-ACE0-83BB913CE897}"/>
+    <workbookView xWindow="7480" yWindow="13860" windowWidth="27500" windowHeight="16440" xr2:uid="{56EAD808-F40F-C541-ACE0-83BB913CE897}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
-    <t>표시 위치(대)</t>
-  </si>
-  <si>
     <t>검증 지표</t>
   </si>
   <si>
@@ -201,6 +198,10 @@
   </si>
   <si>
     <t>사용자 사이드바 로그아웃 버튼 클릭 (크래시)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>표시 위치</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -594,9 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A18882A-CE16-A246-84D2-0CEB48B32C16}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:C25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
@@ -606,256 +605,256 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="C9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
-        <v>39</v>
-      </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
         <v>17</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
-        <v>22</v>
-      </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
         <v>33</v>
       </c>
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="C22" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="C25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:3">
